--- a/biology/Botanique/Charme/Charme.xlsx
+++ b/biology/Botanique/Charme/Charme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carpinus
 Carpinus, le Charme, est un genre d'arbres et d'arbustes de la famille des  Bétulacées (anciennement de la famille des Corylacées qui est maintenant intégrée aux Bétulacées). Ce genre compte une trentaine d'espèces des régions tempérées de l'hémisphère nord, d'Asie mineure et d'Europe. Ils fournissent un excellent bois de chauffage, du bois de trituration et différents bois de service.
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mot charme est issu du latin carpĭnus « charme commun ». Le terme est attesté pour la première fois vers 1170 chez Chrétien de Troyes dans Érec et Énide[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mot charme est issu du latin carpĭnus « charme commun ». Le terme est attesté pour la première fois vers 1170 chez Chrétien de Troyes dans Érec et Énide.
 </t>
         </is>
       </c>
@@ -544,15 +558,15 @@
           <t>Caractéristiques générales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les charmes sont des arbres pouvant mesurer jusqu'à 25 mètres, à feuilles marcescentes, alternes, petites (de 3 à 10 cm de long), simples, avec le bord du limbe finement denté.
 L'écorce de l'arbre est foncée et souvent grise. Elle est quelquefois marron.
 Les fleurs sont regroupées en inflorescences, en forme de chatons pendants, pollinisées par le vent. Les fleurs mâles et femelles se trouvent sur des chatons distincts mais les deux sexes sont présents sur chaque plante (espèce monoïque). Les fleurs mâles dépourvues de périanthe sont réduites aux étamines au nombre de 10 à 20. Les fleurs femelles ont un pistil constitué d'un ovaire à deux loges surmontés de deux stigmates et sont munies d'un calice.
 Les fruits sont des akènes ligneux de 3 à 6 mm de long, attachés à une bractée en forme de feuille simple ou trilobée qui forme une aile favorisant leur dispersion. On trouve généralement de 10 à 30 graines par chaton.
 Le tronc et les plus grosses branches sont parcourus de cannelures hélicoïdales très caractéristiques qui permettent de le distinguer assez facilement du hêtre. L'écorce a des taches blanches.
-Phrase mnémotechnique
-La denture des feuilles de charme (lors d'une comparaison avec le hêtre) est à l'origine d'une phrase mnémotechnique, dont il existe plusieurs variantes : « être à poil charme Adam », « le charme d'Adam, c'est d'être à poil », « le charme a les dents de voir le hêtre à poil », etc., que l'on doit comprendre comme « les charmes ont des feuilles dentées alors que les hêtres ont des feuilles poilues »[2].
 </t>
         </is>
       </c>
@@ -578,10 +592,49 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Caractéristiques générales</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Phrase mnémotechnique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La denture des feuilles de charme (lors d'une comparaison avec le hêtre) est à l'origine d'une phrase mnémotechnique, dont il existe plusieurs variantes : « être à poil charme Adam », « le charme d'Adam, c'est d'être à poil », « le charme a les dents de voir le hêtre à poil », etc., que l'on doit comprendre comme « les charmes ont des feuilles dentées alors que les hêtres ont des feuilles poilues ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Charme</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charme</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de charme sont originaires des régions tempérées de l'hémisphère nord, principalement de l'Extrême-Orient et notamment de la Chine. Une seule espèce est d'origine nord-américaine (le charme d'Amérique) et deux sont européennes (le charme commun et le charme d'Orient).
 Il aime les terrains calcaires et argileux.
@@ -590,33 +643,39 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Charme</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Charme</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Principales espèces
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Principales espèces</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Carpinus betulus L. — Charme commun
 Carpinus caroliniana Walter — Charme d'Amérique
 Carpinus cordata Blume —
@@ -633,8 +692,43 @@
 Carpinus tschonoskii Maxim. -
 Carpinus turczaninowii —
 Carpinus viminea Wall. ex Lindl.
-Liste des espèces et sous-espèces
-Selon World Checklist of Selected Plant Families (WCSP)  (22 déc. 2010)[3] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Charme</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charme</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Liste des espèces et sous-espèces</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (22 déc. 2010) :
 Carpinus betulus L. (1753)
 Carpinus caroliniana Walter (1788)
 Carpinus chuniana Hu (1932)
@@ -680,68 +774,75 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Charme</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Charme</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Le charme commun qui supporte bien la taille est fréquemment planté comme arbre d'ornement dans les parcs et jardins, et pour constituer des allées (charmilles) et des haies.
-Le bois des charmes est très dur, dense, blanc et très fibreux. Son utilisation est néanmoins limitée par le fait qu'il est sensible à l'humidité qui provoque des attaques de champignons et dégrade ses qualités. Il est toutefois recherché pour les usages nécessitant un bois dur, comme les étals de boucher, des maillets ou des manches d'outils. Il ne vient jamais assez gros pour fournir de grandes pièces; on en faisait de bons essieux, des flèches et des timons. Il était surtout excellent dans les machines et dans les moulins, pour les alluchons, les fuseaux de lanterne, les leviers, les poulies, parce qu'il résiste très bien au frottement[4],[5].
+Le bois des charmes est très dur, dense, blanc et très fibreux. Son utilisation est néanmoins limitée par le fait qu'il est sensible à l'humidité qui provoque des attaques de champignons et dégrade ses qualités. Il est toutefois recherché pour les usages nécessitant un bois dur, comme les étals de boucher, des maillets ou des manches d'outils. Il ne vient jamais assez gros pour fournir de grandes pièces; on en faisait de bons essieux, des flèches et des timons. Il était surtout excellent dans les machines et dans les moulins, pour les alluchons, les fuseaux de lanterne, les leviers, les poulies, parce qu'il résiste très bien au frottement,.
 Le charme est très apprécié comme bois de chauffage (excellentes braises) et en tournage. Son nom anglais, hornbeam, rappelle cette caractéristique du bois. Le charme d'Amérique porte aussi le nom de « bois de fer » (Ironwood).
 Son charbon de bois était apprécié dans les forges. Le bois de chauffage étant vendu au volume, le charme est recherché étant donné sa forte densité d'autant plus qu'il a la réputation de bien « tenir » au feu.
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Charme</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Charme</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Symbolique</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Calendrier républicain
-Dans le calendrier républicain, le Charme était le nom attribué au 12e jour du mois de germinal[6].</t>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Calendrier républicain</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Dans le calendrier républicain, le Charme était le nom attribué au 12e jour du mois de germinal.</t>
         </is>
       </c>
     </row>
